--- a/basesDatos/Bases de datos.xlsx
+++ b/basesDatos/Bases de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\dauruxu\basesDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\basesDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B73E3D-C159-4DDA-90CD-5D8745A1F523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90752975-9405-441C-ACBC-5A36B49B6018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4CEA32E9-E774-444D-8AB5-ED43118B390E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CEA32E9-E774-444D-8AB5-ED43118B390E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -649,22 +649,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13364D74-FB97-4AE3-BCDA-D11D9B800FC7}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -746,7 +746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -784,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1384,18 +1384,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,14 +1418,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD4A8D3-B3CD-4243-907B-6DF88FDCFB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E70F1340-0C2E-4C28-BD65-C5027CD7E177}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1440,4 +1432,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD4A8D3-B3CD-4243-907B-6DF88FDCFB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/basesDatos/Bases de datos.xlsx
+++ b/basesDatos/Bases de datos.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\basesDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90752975-9405-441C-ACBC-5A36B49B6018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B3E63-A44F-42C6-98C4-C291E5F4BDF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CEA32E9-E774-444D-8AB5-ED43118B390E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4CEA32E9-E774-444D-8AB5-ED43118B390E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BasesDatos" sheetId="1" r:id="rId1"/>
+    <sheet name="CriteriosBasesDatos" sheetId="2" r:id="rId2"/>
+    <sheet name="CriteriosHerramientas" sheetId="3" r:id="rId3"/>
+    <sheet name="Herramientas" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BasesDatos!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Herramientas!$A$1:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
   <si>
     <t>Nombre Bases de datos</t>
   </si>
@@ -240,13 +244,327 @@
     <t>General body movements: cartwheel, clap hands, climb, climb stairs, dive, fall on the floor, backhand flip, handstand, jump, pull up, push up, run, sit down, sit up, somersault, stand up, turn, walk, wave.
 Body movements with object interaction: brush hair, catch, draw sword, dribble, golf, hit something, kick ball, pick, pour, push something, ride bike, ride horse, shoot ball, shoot bow, shoot gun, swing baseball bat, sword exercise, throw.
 Body movements for human interaction: fencing, hug, kick someone, kiss, punch, shake hands, sword fight.</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
+  </si>
+  <si>
+    <t>Modo de 
+Evaluación</t>
+  </si>
+  <si>
+    <t>Opciones de 
+Respuesta</t>
+  </si>
+  <si>
+    <t>Descripción Criterio</t>
+  </si>
+  <si>
+    <t>Significado de Respuesta</t>
+  </si>
+  <si>
+    <t>Umbral de Aceptación</t>
+  </si>
+  <si>
+    <t>Obligatorio</t>
+  </si>
+  <si>
+    <t>Ponderación</t>
+  </si>
+  <si>
+    <t>Cálculo del Criterio</t>
+  </si>
+  <si>
+    <t>Valor deseable</t>
+  </si>
+  <si>
+    <t>Obligatorio/ 
+No Obligatorio</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes incluye la transformación de videos a fotogramas?</t>
+  </si>
+  <si>
+    <t>¿La descarga del banco de imágenes está disponible?</t>
+  </si>
+  <si>
+    <t>¿Las imágenes presentadas en el banco tienen contenido relacionado con actividades?</t>
+  </si>
+  <si>
+    <t>¿Las imágenes presentadas en el banco tienen contenido relacionado con emociones?</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes contiene escenas simuladas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿El banco de imágenes contiene escenas reales? </t>
+  </si>
+  <si>
+    <t>¿Cantidad de videos incluidos en el banco de imágenes?</t>
+  </si>
+  <si>
+    <t>¿Duración promedio de los videos incluidos en el banco de imágenes</t>
+  </si>
+  <si>
+    <t>¿Resolución de las imágenes?</t>
+  </si>
+  <si>
+    <t>¿La herramienta incluye un entorno gráfico para ejecutar la experimentación?</t>
+  </si>
+  <si>
+    <t>¿La herramienta tiene un costo asociado a su licenciamiento y uso?</t>
+  </si>
+  <si>
+    <t>¿La herramienta incluye un KIT de desarrollo para su implementación en otros lenguajes?</t>
+  </si>
+  <si>
+    <t>¿El investigador tiene afinidad con la herramienta?</t>
+  </si>
+  <si>
+    <t>¿Experiencia y conocimiento de la herramienta?</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes tiene implementación de código que pueda ser utilizada?</t>
+  </si>
+  <si>
+    <t>Nombre de herramienta</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>IDE/Lenguaje</t>
+  </si>
+  <si>
+    <t>Librería</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
+  <si>
+    <t>WOLFRAM</t>
+  </si>
+  <si>
+    <t>OPENCV</t>
+  </si>
+  <si>
+    <t>OPENPOSE</t>
+  </si>
+  <si>
+    <t>WRNCH</t>
+  </si>
+  <si>
+    <t>TENSORFLOW</t>
+  </si>
+  <si>
+    <t>https://la.mathworks.com/solutions/image-video-processing.html</t>
+  </si>
+  <si>
+    <t>https://www.wolfram.com/language/12/new-in-image-processing/</t>
+  </si>
+  <si>
+    <t>https://opencv.org/</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/</t>
+  </si>
+  <si>
+    <t>https://wrnch.ai/product/#product_1</t>
+  </si>
+  <si>
+    <t>https://github.com/CMU-Perceptual-Computing-Lab/openpose</t>
+  </si>
+  <si>
+    <t>http://domedb.perception.cs.cmu.edu/index.html</t>
+  </si>
+  <si>
+    <t>14-PANOPTIC</t>
+  </si>
+  <si>
+    <t>CMU PANOPTIC DATASET</t>
+  </si>
+  <si>
+    <t>640 X 480 PX / 1920 x 1080</t>
+  </si>
+  <si>
+    <t>Human Activity Recognition with Metric Learning</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes contiene etiquetas generales que explique lo que se evidencia en ellas?</t>
+  </si>
+  <si>
+    <t>¿Las imágenes presentadas se desarrollan en un entorno similar a los casos de referencia del proyecto?</t>
+  </si>
+  <si>
+    <t>Criterio 1 
+Disposición del banco de imágenes</t>
+  </si>
+  <si>
+    <t>Criterio 3
+Variedad del banco de imágenes</t>
+  </si>
+  <si>
+    <t>Criterio 4
+Volumen del banco de imágenes</t>
+  </si>
+  <si>
+    <t>Criterio 5
+Facilidades para el proyecto</t>
+  </si>
+  <si>
+    <t>Nivel
+ 1</t>
+  </si>
+  <si>
+    <t>Nivel
+ 2</t>
+  </si>
+  <si>
+    <t>Nivel
+ 3</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes contiene documentación detallada del contenido de los videos?</t>
+  </si>
+  <si>
+    <t>¿El banco de imágenes contiene soporte bibliográfico o articulos asociados a este?</t>
+  </si>
+  <si>
+    <t>SI/NO</t>
+  </si>
+  <si>
+    <t>Criterio 2
+Contenido del banco de imágenes</t>
+  </si>
+  <si>
+    <t>Calificación del investigador relacionado con la disponibilidad y forma de disposición del banco de imágenes.</t>
+  </si>
+  <si>
+    <t>¿El banco contiene escenas especificas del rostro?</t>
+  </si>
+  <si>
+    <t>¿El banco contiene escenas de todo el cuerpo?</t>
+  </si>
+  <si>
+    <t>¿El banco tiene tomas de escenas en diferentes ubicaciones?</t>
+  </si>
+  <si>
+    <t>¿El banco tiene tomas de la misma escena en diferentes ángulos o posiciones relevantes para el proyecto?</t>
+  </si>
+  <si>
+    <t>¿El banco contiene videos de diferentes periodos? (historico)</t>
+  </si>
+  <si>
+    <t>¿El banco contiene videos?</t>
+  </si>
+  <si>
+    <t>¿El banco contiene fotogramas?</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Significado de 
+Respuesta</t>
+  </si>
+  <si>
+    <t>ALTA = 3 
+MEDIA = 2 
+BAJA = 1</t>
+  </si>
+  <si>
+    <t>SI = 1 
+NO=0</t>
+  </si>
+  <si>
+    <t>ALTA 
+MEDIA
+BAJA</t>
+  </si>
+  <si>
+    <t>SI: 
+NO:</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>Umbral de 
+Aceptación</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>SI = 3 
+NO=0</t>
+  </si>
+  <si>
+    <t>&gt;=6</t>
+  </si>
+  <si>
+    <t>SI = 2 
+NO=0</t>
+  </si>
+  <si>
+    <t>ALTA &gt; 120u
+MEDIA &lt;= 120u
+BAJA &lt;= 40u</t>
+  </si>
+  <si>
+    <t>ALTA &gt; 5min
+MEDIA &lt;= 5min 
+BAJA &lt;=1min</t>
+  </si>
+  <si>
+    <t>SI = 10 
+NO=0</t>
+  </si>
+  <si>
+    <t>SI = 10
+NO=0</t>
+  </si>
+  <si>
+    <t>No obligatorio</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>Las preguntas que no superen el umbral, se dejará en 0 en su calificación. Posteriormente, se tiene en cuenta la sumatoria de las calificaciones y se multiplica por el porcentaje de aporte</t>
+  </si>
+  <si>
+    <t>Este criterio se adicionará como plus a los bancos finalistas</t>
+  </si>
+  <si>
+    <t>ALTA &gt;1920x1080 
+MEDIA &lt;= 1920x1080   
+BAJA &lt;= 360x240</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +588,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +616,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,12 +682,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,6 +737,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -647,16 +1107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13364D74-FB97-4AE3-BCDA-D11D9B800FC7}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -706,153 +1166,171 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>90</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
         <v>2004</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>420</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>77</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
         <v>2005</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
         <v>2006</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
         <v>2007</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="11">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="11">
         <v>1446</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="11">
         <v>25</v>
       </c>
       <c r="O6" s="4"/>
@@ -864,6 +1342,9 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
       <c r="C7">
         <v>2008</v>
       </c>
@@ -891,40 +1372,41 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
         <v>2008</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>120</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="9">
         <v>1440</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="9">
         <v>30</v>
       </c>
       <c r="O8" s="4"/>
@@ -932,41 +1414,42 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
         <v>2009</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="11">
         <v>104</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="11">
         <v>25</v>
       </c>
       <c r="O9" s="4"/>
@@ -1011,40 +1494,41 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11">
         <v>2010</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="11">
         <v>300</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="11">
         <v>30</v>
       </c>
       <c r="O11" s="4"/>
@@ -1102,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1110,40 +1594,41 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11">
         <v>2010</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="11">
         <v>20</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="11">
         <v>25</v>
       </c>
       <c r="O14" s="4"/>
@@ -1181,6 +1666,32 @@
       </c>
       <c r="M15">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +1718,900 @@
     <hyperlink ref="D13" r:id="rId12" xr:uid="{30764C50-4C34-457E-AA2A-93FE17B90FB0}"/>
     <hyperlink ref="D7" r:id="rId13" xr:uid="{815F9655-E26C-468D-A670-AC0CF909C63C}"/>
     <hyperlink ref="D14" r:id="rId14" xr:uid="{527B8C05-2F58-4307-A419-2D0A02C0CB73}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{77390B14-C08C-48B3-8EF0-3C946159C070}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39FFEDA-9550-483A-AC97-B6C8CDD5AFE0}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B10:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0EBC04-12AD-4BF6-8F95-C2C1165B429B}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4F77A-3EE3-4179-B1F4-4BDFCFEC4E99}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M2" xr:uid="{FB645DF5-57CE-4705-8939-4E613CAA0E01}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{DF972C7C-3197-47BA-9B4F-2A419B214E94}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F509CAEC-E19D-4446-8D00-FD3C220DAAF8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E48795DF-0A70-45D8-A780-BBA62CD90BF5}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{AC6C9D87-2A45-4277-9E09-B375A7B6241D}"/>
+    <hyperlink ref="D6" r:id="rId5" location="product_1" xr:uid="{67243339-9290-469F-8F6D-AC4AF0811FF4}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{271073D1-281A-41E4-86ED-4B58E6A8545B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,18 +2789,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,6 +2823,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD4A8D3-B3CD-4243-907B-6DF88FDCFB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E70F1340-0C2E-4C28-BD65-C5027CD7E177}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1432,12 +2845,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD4A8D3-B3CD-4243-907B-6DF88FDCFB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>